--- a/tracking/compare/guri-si.xlsx
+++ b/tracking/compare/guri-si.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FD88E2-A0B2-4B49-AB06-043F15432EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E6AF4-48A9-4B69-BB00-8BF2339DA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDC51D-2E36-4D57-94B1-27F104368CB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>한라비발디</t>
   </si>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>타입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플루리움4단지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -337,6 +341,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -389,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +420,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C142389F-22E2-4A0B-92E8-1986CD0475A7}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I121" sqref="I120:J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2053,388 +2067,399 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="22.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
+        <v>3017</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>3105</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B122" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C121" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="C122" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>3020</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="C123" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>157691</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C123" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="C124" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>106761</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C124" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="C125" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>106761</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C125" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="C126" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>3018</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C126" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="C127" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>3018</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C128" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="129" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>3018</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C128" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="C129" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>10209</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C129" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="C130" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>10209</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C130" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="C131" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>100181</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C132" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="133" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>100181</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C133" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+    <row r="134" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>100181</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="C134" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>11497</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C134" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="C135" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>11497</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C135" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="C136" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>27338</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C136" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="C137" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>27338</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="C138" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>124786</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C138" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="C139" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>124786</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C139" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="C140" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>26480</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="C141" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>26480</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C141" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="C142" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>10431</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C142" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="C143" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>10431</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="C144" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>115493</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C144" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="C145" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>25472</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B146" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="147" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>25472</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C146" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="C147" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>25471</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="1">
+      <c r="B148" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="149" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>25471</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="B149" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>117630</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="C150" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>115538</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="C151" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>115539</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B152" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C152" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="153" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>115539</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="C153" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>115545</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C154" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="155" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>115545</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C154" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="C155" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>115601</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C156" s="1">
         <v>84</v>
       </c>
     </row>
